--- a/data/trans_orig/SE_ADU-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Estudios-trans_orig.xlsx
@@ -770,19 +770,19 @@
         <v>1315112</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1263915</v>
+        <v>1270481</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1361550</v>
+        <v>1365161</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5603770045736829</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5385617109552994</v>
+        <v>0.5413592418758845</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5801644571320115</v>
+        <v>0.5817028153696507</v>
       </c>
     </row>
     <row r="5">
@@ -825,19 +825,19 @@
         <v>1031723</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>985285</v>
+        <v>981674</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1082920</v>
+        <v>1076354</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4396229954263171</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4198355428679885</v>
+        <v>0.4182971846303493</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4614382890447006</v>
+        <v>0.4586407581241156</v>
       </c>
     </row>
     <row r="6">
@@ -955,19 +955,19 @@
         <v>1587673</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1530477</v>
+        <v>1527673</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1644665</v>
+        <v>1645192</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4838865062578817</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4664543142021843</v>
+        <v>0.4655997897542908</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5012562708327909</v>
+        <v>0.5014169583014985</v>
       </c>
     </row>
     <row r="8">
@@ -1010,19 +1010,19 @@
         <v>1693413</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1636421</v>
+        <v>1635894</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1750609</v>
+        <v>1753413</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5161134937421183</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4987437291672092</v>
+        <v>0.4985830416985014</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5335456857978158</v>
+        <v>0.5344002102457093</v>
       </c>
     </row>
     <row r="9">
@@ -1140,19 +1140,19 @@
         <v>476412</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>442566</v>
+        <v>441344</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>509270</v>
+        <v>509470</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4635167975866579</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4305875155674488</v>
+        <v>0.4293983096335618</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4954859353145223</v>
+        <v>0.4956797864127497</v>
       </c>
     </row>
     <row r="11">
@@ -1195,19 +1195,19 @@
         <v>551408</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>518550</v>
+        <v>518350</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>585254</v>
+        <v>586476</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5364832024133421</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5045140646854775</v>
+        <v>0.5043202135872508</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5694124844325508</v>
+        <v>0.5706016903664385</v>
       </c>
     </row>
     <row r="12">
@@ -1325,19 +1325,19 @@
         <v>3379197</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3297677</v>
+        <v>3299665</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3459542</v>
+        <v>3457626</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5077116877680198</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4954635155670608</v>
+        <v>0.4957622900323103</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5197831532487917</v>
+        <v>0.5194952187577856</v>
       </c>
     </row>
     <row r="14">
@@ -1380,19 +1380,19 @@
         <v>3276544</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3196199</v>
+        <v>3198115</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3358064</v>
+        <v>3356076</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4922883122319802</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4802168467512084</v>
+        <v>0.4805047812422146</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5045364844329393</v>
+        <v>0.5042377099676898</v>
       </c>
     </row>
     <row r="15">
@@ -1749,19 +1749,19 @@
         <v>1337797</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1294608</v>
+        <v>1288661</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1392661</v>
+        <v>1385538</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5785217357993332</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5598449711438407</v>
+        <v>0.5572734459065463</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.602247355384724</v>
+        <v>0.5991673158919595</v>
       </c>
     </row>
     <row r="5">
@@ -1804,19 +1804,19 @@
         <v>974643</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>919779</v>
+        <v>926902</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1017832</v>
+        <v>1023779</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4214782642006669</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3977526446152761</v>
+        <v>0.4008326841080406</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4401550288561594</v>
+        <v>0.4427265540934538</v>
       </c>
     </row>
     <row r="6">
@@ -1934,19 +1934,19 @@
         <v>1757803</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1700318</v>
+        <v>1695294</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1824344</v>
+        <v>1816061</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4723041325511842</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4568585744088588</v>
+        <v>0.4555087151074789</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4901832072218421</v>
+        <v>0.4879574914316428</v>
       </c>
     </row>
     <row r="8">
@@ -1989,19 +1989,19 @@
         <v>1963957</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1897416</v>
+        <v>1905699</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2021442</v>
+        <v>2026466</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5276958674488158</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5098167927781577</v>
+        <v>0.5120425085683571</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5431414255911411</v>
+        <v>0.5444912848925211</v>
       </c>
     </row>
     <row r="9">
@@ -2119,19 +2119,19 @@
         <v>458631</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>424387</v>
+        <v>425044</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>490444</v>
+        <v>494050</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4880027402126617</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4515654372541925</v>
+        <v>0.452264732434463</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5218528109056595</v>
+        <v>0.5256895659475412</v>
       </c>
     </row>
     <row r="11">
@@ -2174,19 +2174,19 @@
         <v>481182</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>449369</v>
+        <v>445763</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>515426</v>
+        <v>514769</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5119972597873383</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4781471890943405</v>
+        <v>0.4743104340524588</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5484345627458075</v>
+        <v>0.547735267565537</v>
       </c>
     </row>
     <row r="12">
@@ -2304,19 +2304,19 @@
         <v>3554230</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3466746</v>
+        <v>3462153</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3645829</v>
+        <v>3642082</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5096392461357638</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.497094863019855</v>
+        <v>0.4964363393185925</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5227735870154552</v>
+        <v>0.5222362726407629</v>
       </c>
     </row>
     <row r="14">
@@ -2359,19 +2359,19 @@
         <v>3419782</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3328183</v>
+        <v>3331930</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3507266</v>
+        <v>3511859</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4903607538642362</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4772264129845448</v>
+        <v>0.4777637273592371</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5029051369801449</v>
+        <v>0.5035636606814076</v>
       </c>
     </row>
     <row r="15">
@@ -2728,19 +2728,19 @@
         <v>994660</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>948887</v>
+        <v>948108</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1036045</v>
+        <v>1035108</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5686999542459873</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5425287407477261</v>
+        <v>0.5420837731198427</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.592361636655799</v>
+        <v>0.5918262971394175</v>
       </c>
     </row>
     <row r="5">
@@ -2783,19 +2783,19 @@
         <v>754347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>712962</v>
+        <v>713899</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>800120</v>
+        <v>800899</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4313000457540127</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4076383633442011</v>
+        <v>0.4081737028605826</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.457471259252274</v>
+        <v>0.4579162268801573</v>
       </c>
     </row>
     <row r="6">
@@ -2913,19 +2913,19 @@
         <v>1988300</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1932333</v>
+        <v>1925146</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2061060</v>
+        <v>2057965</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4891646093076252</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4753956234522986</v>
+        <v>0.4736274193753452</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5070650761211272</v>
+        <v>0.5063037852433736</v>
       </c>
     </row>
     <row r="8">
@@ -2968,19 +2968,19 @@
         <v>2076385</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2003625</v>
+        <v>2006720</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2132352</v>
+        <v>2139539</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5108353906923747</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4929349238788729</v>
+        <v>0.4936962147566266</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5246043765477014</v>
+        <v>0.5263725806246548</v>
       </c>
     </row>
     <row r="9">
@@ -3098,19 +3098,19 @@
         <v>549141</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>517350</v>
+        <v>517389</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>583351</v>
+        <v>584899</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5010283250741911</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4720234159958512</v>
+        <v>0.4720587122320743</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5322410530180274</v>
+        <v>0.5336538252628982</v>
       </c>
     </row>
     <row r="11">
@@ -3153,19 +3153,19 @@
         <v>546886</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>512676</v>
+        <v>511128</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>578677</v>
+        <v>578638</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4989716749258089</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4677589469819726</v>
+        <v>0.4663461747371017</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5279765840041486</v>
+        <v>0.5279412877679256</v>
       </c>
     </row>
     <row r="12">
@@ -3283,19 +3283,19 @@
         <v>3532100</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3446573</v>
+        <v>3446997</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3616287</v>
+        <v>3609267</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5111786496378939</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4988008352384098</v>
+        <v>0.4988622421653063</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5233624760229472</v>
+        <v>0.5223465503701386</v>
       </c>
     </row>
     <row r="14">
@@ -3338,19 +3338,19 @@
         <v>3377618</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3293431</v>
+        <v>3300451</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3463145</v>
+        <v>3462721</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4888213503621061</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4766375239770527</v>
+        <v>0.4776534496298613</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5011991647615902</v>
+        <v>0.5011377578346936</v>
       </c>
     </row>
     <row r="15">
@@ -3707,19 +3707,19 @@
         <v>822038</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>789389</v>
+        <v>791052</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>858827</v>
+        <v>853982</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.586932079009451</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5636211794732841</v>
+        <v>0.5648084412996157</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6131994530296031</v>
+        <v>0.6097405522101711</v>
       </c>
     </row>
     <row r="5">
@@ -3762,19 +3762,19 @@
         <v>578529</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>541740</v>
+        <v>546585</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>611178</v>
+        <v>609515</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4130679209905492</v>
+        <v>0.4130679209905491</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3868005469703968</v>
+        <v>0.3902594477898289</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4363788205267159</v>
+        <v>0.4351915587003842</v>
       </c>
     </row>
     <row r="6">
@@ -3892,19 +3892,19 @@
         <v>2171392</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2106337</v>
+        <v>2096503</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2245714</v>
+        <v>2239358</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4932786483322702</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4784999972449189</v>
+        <v>0.4762659893733768</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5101624278648118</v>
+        <v>0.5087184795700717</v>
       </c>
     </row>
     <row r="8">
@@ -3947,19 +3947,19 @@
         <v>2230567</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2156245</v>
+        <v>2162601</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2295622</v>
+        <v>2305456</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5067213516677297</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.489837572135188</v>
+        <v>0.4912815204299284</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5215000027550811</v>
+        <v>0.5237340106266233</v>
       </c>
     </row>
     <row r="9">
@@ -4077,19 +4077,19 @@
         <v>734877</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>695863</v>
+        <v>693773</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>771106</v>
+        <v>771213</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5080507516183714</v>
+        <v>0.5080507516183713</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4810790190882342</v>
+        <v>0.4796335059133662</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5330971280988089</v>
+        <v>0.5331711000679175</v>
       </c>
     </row>
     <row r="11">
@@ -4132,19 +4132,19 @@
         <v>711587</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>675358</v>
+        <v>675251</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>750601</v>
+        <v>752691</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4919492483816287</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4669028719011911</v>
+        <v>0.4668288999320827</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5189209809117656</v>
+        <v>0.5203664940866339</v>
       </c>
     </row>
     <row r="12">
@@ -4262,19 +4262,19 @@
         <v>3728307</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3646415</v>
+        <v>3643684</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3813246</v>
+        <v>3820006</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5143209245754156</v>
+        <v>0.5143209245754157</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5030238709211136</v>
+        <v>0.5026470888210681</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5260382321922027</v>
+        <v>0.5269708302133769</v>
       </c>
     </row>
     <row r="14">
@@ -4317,19 +4317,19 @@
         <v>3520683</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3435744</v>
+        <v>3428984</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3602575</v>
+        <v>3605306</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4856790754245844</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.473961767807797</v>
+        <v>0.4730291697866232</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4969761290788862</v>
+        <v>0.4973529111789319</v>
       </c>
     </row>
     <row r="15">
